--- a/medicine/Enfance/Nathalie_Parain/Nathalie_Parain.xlsx
+++ b/medicine/Enfance/Nathalie_Parain/Nathalie_Parain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathalie Parain (Наталья Челпанова), née Natalia [Natacha] Tchelpanova en 1897 à Kiev et morte en 1958 à Sceaux est une dessinatrice d'origine russe.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est à Moscou que « Nathalie effectue sa scolarité et a pour camarade de classe Marina Tsvetaïeva, future poétesse de renom qui fera un séjour à La Favière. La Révolution de 1917 met fin à ses études à l'école des Beaux-Arts et elle s'inscrit » aux Vkhutemas (Ateliers d'État) de Moscou, dans l'atelier de Piotr Kontchalovski, qui faisait partie de l'avant-garde constructiviste d'URSS et qui était « membre de l'association d'artistes du Valet de Carreau ». Là elle espère « obtenir un diplôme reconnu par les nouvelles autorités »[réf. souhaitée]. « Ses études terminées, elle réalise des portraits et enseigne le dessin aux enfants pour subsister »[réf. souhaitée] Ayant épousé en 1926 l'écrivain et essayiste Brice Parain, attaché culturel auprès de l'ambassade de France à Moscou, ils quittent l'URSS et arrivent à Paris en 1928.
 Elle se lance dans l'illustration de livres pour enfants dans l'esprit Constructiviste russe en étant particulièrement inspirée par Malevitch. 
-Après avoir fait paraître Mon chat (texte d'André Beucler) en 1930, elle devient, à la demande de Paul Faucher, l'une des principales illustratrices de la collection du Père Castor (Flammarion), et aussi des œuvres de Marcel Aymé[1]. « Elle fréquente assidûment son amie Alexandra Exter qui habite Fontenay-aux-Roses ainsi que Feodor Rojankovsky qu'elle retrouve d'ailleurs en vacances à La Favière, où elle loge chez les Obolensky[Lesquels ?] et passe beaucoup de temps avec Nathalie Gontcharova et Michel Larionov. » Avec son mari Brice et sa fille Tatiana ils vont se baigner à Gouron et vont à Bormes-les-Mimosas rendre visite à Victoria Kontchalovski sœur du peintre Piotr Kontchalovski et « à Jean Paulhan qui occupe la vigie à Port-Cros ». Elle aida plusieurs artistes émigrés d'URSS à travailler pour des éditeurs français. Comme Paul Faucher, Nathalie Parain considérait le livre pour enfants comme un objet de culture à part entière.
-Plusieurs de ses ouvrages ont été réédités en fac-similé, ainsi Mon chat, aux Éditions MeMo, collection les Trois ourses en 2006[2].
+Après avoir fait paraître Mon chat (texte d'André Beucler) en 1930, elle devient, à la demande de Paul Faucher, l'une des principales illustratrices de la collection du Père Castor (Flammarion), et aussi des œuvres de Marcel Aymé. « Elle fréquente assidûment son amie Alexandra Exter qui habite Fontenay-aux-Roses ainsi que Feodor Rojankovsky qu'elle retrouve d'ailleurs en vacances à La Favière, où elle loge chez les Obolensky[Lesquels ?] et passe beaucoup de temps avec Nathalie Gontcharova et Michel Larionov. » Avec son mari Brice et sa fille Tatiana ils vont se baigner à Gouron et vont à Bormes-les-Mimosas rendre visite à Victoria Kontchalovski sœur du peintre Piotr Kontchalovski et « à Jean Paulhan qui occupe la vigie à Port-Cros ». Elle aida plusieurs artistes émigrés d'URSS à travailler pour des éditeurs français. Comme Paul Faucher, Nathalie Parain considérait le livre pour enfants comme un objet de culture à part entière.
+Plusieurs de ses ouvrages ont été réédités en fac-similé, ainsi Mon chat, aux Éditions MeMo, collection les Trois ourses en 2006.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille de Gueorgui Ivanovitch Tchelpanov, professeur de philosophie et fondateur du premier institut de psychologie à Moscou.
 </t>
@@ -576,7 +592,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1944 : Prix du centenaire de l'Académie des Beaux-Arts 
 </t>
@@ -607,7 +625,9 @@
           <t>Ouvrages illustrés (sélection)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Jean-Marie Embs et Philippe Mellot, 100 ans de livres d'enfants et de jeunesse 1840-1940, Éditions de Lodi :
 Les Albums du Père Castor (Flammarion) :
@@ -617,7 +637,7 @@
 Ribambelles (1932)
 Crayons et Ciseaux (1932)
 Ronds et Carrés (1932)
-Baba Yaga (Rose Celli[3], 1932 - réédition, Nantes, 2010, éditions MeMo)
+Baba Yaga (Rose Celli, 1932 - réédition, Nantes, 2010, éditions MeMo)
 Album magique (1932)
 Allons vite (1933)
 Jeux en images (1933)
@@ -676,11 +696,13 @@
           <t>Ouvrages numérisés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sont accessibles en ligne, sur la bibliothèque numérique Gallica :
-Faites votre marché / Images de Nathalie Parain. Scénario du Père Castor. 1935 [1]
-Mon chat / André Beucler, Nathalie Parain, Gallimard, 1930 [2]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont accessibles en ligne, sur la bibliothèque numérique Gallica :
+Faites votre marché / Images de Nathalie Parain. Scénario du Père Castor. 1935 
+Mon chat / André Beucler, Nathalie Parain, Gallimard, 1930 </t>
         </is>
       </c>
     </row>
